--- a/AccessibleDashboardData/2021-09-01.xlsx
+++ b/AccessibleDashboardData/2021-09-01.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="1600">
   <si>
     <t>County</t>
   </si>
@@ -4783,6 +4783,18 @@
     <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
   </si>
   <si>
+    <t>Adult COVID-19 Patients in General Beds</t>
+  </si>
+  <si>
+    <t>Adult COVID-19 Patients in ICUs</t>
+  </si>
+  <si>
+    <t>Pediatric COVID-19 Patients in General Beds</t>
+  </si>
+  <si>
+    <t>Total Lab Confirmed COVID-19 Admits in the Last 24HRs</t>
+  </si>
+  <si>
     <t>Total Texas Hospital Capacity</t>
   </si>
   <si>
@@ -4793,6 +4805,12 @@
   </si>
   <si>
     <t>Available Texas ICU Beds</t>
+  </si>
+  <si>
+    <t>Available Texas PICU Beds</t>
+  </si>
+  <si>
+    <t>Total Lab Confirmed COVID-19 Patients on Ventilators</t>
   </si>
   <si>
     <t>Available Texas Ventilators</t>
@@ -8774,7 +8792,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8782,7 +8800,7 @@
         <v>261</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -44571,7 +44589,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44579,7 +44597,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -44603,7 +44621,7 @@
         <v>1586</v>
       </c>
       <c r="B5">
-        <v>64805</v>
+        <v>9861</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -44611,7 +44629,7 @@
         <v>1587</v>
       </c>
       <c r="B6">
-        <v>60704</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -44619,7 +44637,7 @@
         <v>1588</v>
       </c>
       <c r="B7">
-        <v>7494</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -44627,7 +44645,7 @@
         <v>1589</v>
       </c>
       <c r="B8">
-        <v>359</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -44635,6 +44653,54 @@
         <v>1590</v>
       </c>
       <c r="B9">
+        <v>64805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B10">
+        <v>60704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B11">
+        <v>7494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B12">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B14">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B15">
         <v>6214</v>
       </c>
     </row>
